--- a/IRE699_0413/Gyak10.xlsx
+++ b/IRE699_0413/Gyak10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikor\Documents\ME\IRE699OsGyak\IRE699_0413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2EB2A9-67A5-49BC-BB47-7C17406D0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA032483-BA74-4FCD-9F25-8E49D58D0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1248" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -293,21 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,21 +312,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -634,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,433 +634,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f>B6-F6</f>
         <v>7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f t="shared" ref="K6:L6" si="0">C6-G6</f>
-        <v>4</v>
-      </c>
-      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="7">
         <f>E$15-J6</f>
-        <v>-7</v>
-      </c>
-      <c r="O6" s="11">
+        <v>-4</v>
+      </c>
+      <c r="O6" s="8">
         <f t="shared" ref="O6:P10" si="1">F$15-K6</f>
-        <v>-4</v>
-      </c>
-      <c r="P6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="9">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="6">
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" ref="J7:J10" si="2">B7-F7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <f t="shared" ref="K7:K10" si="3">C7-G7</f>
         <v>2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <f t="shared" ref="L7:L10" si="4">D7-H7</f>
         <v>2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="10">
         <f t="shared" ref="N7:N10" si="5">E$15-J7</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="4">
+        <v>3</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="13">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="6">
-        <v>2</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" si="5"/>
-        <v>-6</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T8" s="6">
-        <v>3</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="P9" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="6">
-        <v>2</v>
-      </c>
-      <c r="U9" s="6">
-        <v>1</v>
-      </c>
-      <c r="V9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1091,23 +1081,23 @@
       <c r="O13" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1">
         <f>SUM(F6:F10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
         <f>SUM(G6:G10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <f>SUM(H6:H10)</f>
@@ -1116,23 +1106,23 @@
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1">
         <f>E13-E14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ref="F15:G15" si="6">F13-F14</f>
-        <v>0</v>
+        <f t="shared" ref="F15" si="6">F13-F14</f>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f>G13-G14</f>
@@ -1156,33 +1146,33 @@
       <c r="O15" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="N6:P10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
